--- a/artfynd/A 16158-2021.xlsx
+++ b/artfynd/A 16158-2021.xlsx
@@ -2243,10 +2243,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98151358</v>
+        <v>98151268</v>
       </c>
       <c r="B15" t="n">
-        <v>93148</v>
+        <v>73631</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2255,38 +2255,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1079</v>
+        <v>6426</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stormyran, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>663923.3061348161</v>
+        <v>664289.4311076899</v>
       </c>
       <c r="R15" t="n">
-        <v>6968220.089407885</v>
+        <v>6968026.761211542</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98151268</v>
+        <v>98150989</v>
       </c>
       <c r="B16" t="n">
-        <v>73631</v>
+        <v>77541</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,25 +2367,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6426</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664289.4311076899</v>
+        <v>664384.6636208369</v>
       </c>
       <c r="R16" t="n">
-        <v>6968026.761211542</v>
+        <v>6968003.128549194</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98151130</v>
+        <v>98151014</v>
       </c>
       <c r="B17" t="n">
-        <v>78503</v>
+        <v>89732</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2479,25 +2479,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6456</v>
+        <v>2062</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>663974.0132528287</v>
+        <v>664290.9406681373</v>
       </c>
       <c r="R17" t="n">
-        <v>6968297.750628498</v>
+        <v>6968060.737959783</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98150989</v>
+        <v>98151080</v>
       </c>
       <c r="B18" t="n">
-        <v>77541</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2595,21 +2595,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664384.6636208369</v>
+        <v>664386.6082164289</v>
       </c>
       <c r="R18" t="n">
-        <v>6968003.128549194</v>
+        <v>6968010.097956684</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>98151356</v>
+        <v>98151357</v>
       </c>
       <c r="B19" t="n">
         <v>78479</v>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663975.9349722316</v>
+        <v>664139.5142268437</v>
       </c>
       <c r="R19" t="n">
-        <v>6968296.014373922</v>
+        <v>6968033.915686903</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>98151144</v>
+        <v>98151084</v>
       </c>
       <c r="B20" t="n">
-        <v>89403</v>
+        <v>89392</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2815,25 +2815,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663973.143774787</v>
+        <v>664311.4867898196</v>
       </c>
       <c r="R20" t="n">
-        <v>6968296.79099117</v>
+        <v>6968099.332879714</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>98151014</v>
+        <v>98151131</v>
       </c>
       <c r="B21" t="n">
-        <v>89732</v>
+        <v>78503</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2927,25 +2927,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2062</v>
+        <v>6456</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664290.9406681373</v>
+        <v>664135.3270324104</v>
       </c>
       <c r="R21" t="n">
-        <v>6968060.737959783</v>
+        <v>6968035.080522615</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>98151080</v>
+        <v>98151083</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664386.6082164289</v>
+        <v>664289.8194318935</v>
       </c>
       <c r="R22" t="n">
-        <v>6968010.097956684</v>
+        <v>6968064.804886819</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>98151357</v>
+        <v>98151081</v>
       </c>
       <c r="B23" t="n">
-        <v>78479</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,25 +3151,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>392</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3179,10 +3179,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664139.5142268437</v>
+        <v>664390.9109275232</v>
       </c>
       <c r="R23" t="n">
-        <v>6968033.915686903</v>
+        <v>6967988.323297421</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>98151084</v>
+        <v>98151176</v>
       </c>
       <c r="B24" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664311.4867898196</v>
+        <v>664312.310446391</v>
       </c>
       <c r="R24" t="n">
-        <v>6968099.332879714</v>
+        <v>6968101.206605153</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>98151131</v>
+        <v>98151145</v>
       </c>
       <c r="B25" t="n">
-        <v>78503</v>
+        <v>89403</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6456</v>
+        <v>1205</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664135.3270324104</v>
+        <v>664122.421552405</v>
       </c>
       <c r="R25" t="n">
-        <v>6968035.080522615</v>
+        <v>6968017.942315456</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>98151083</v>
+        <v>98151307</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3491,34 +3491,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664289.8194318935</v>
+        <v>664448.9567745975</v>
       </c>
       <c r="R26" t="n">
-        <v>6968064.804886819</v>
+        <v>6968056.745323926</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>98151081</v>
+        <v>98151269</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>73631</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3599,38 +3599,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664390.9109275232</v>
+        <v>664416.9957306259</v>
       </c>
       <c r="R27" t="n">
-        <v>6967988.323297421</v>
+        <v>6967989.630702551</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>98151176</v>
+        <v>98151342</v>
       </c>
       <c r="B28" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,34 +3715,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664312.310446391</v>
+        <v>664414.5233459049</v>
       </c>
       <c r="R28" t="n">
-        <v>6968101.206605153</v>
+        <v>6968011.497083161</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>98151145</v>
+        <v>98151305</v>
       </c>
       <c r="B29" t="n">
-        <v>89403</v>
+        <v>81236</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3823,38 +3823,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1205</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664122.421552405</v>
+        <v>664420.7254760786</v>
       </c>
       <c r="R29" t="n">
-        <v>6968017.942315456</v>
+        <v>6967988.443260053</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>98151307</v>
+        <v>98151275</v>
       </c>
       <c r="B30" t="n">
-        <v>81236</v>
+        <v>89406</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3939,21 +3939,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664448.9567745975</v>
+        <v>664428.9819053004</v>
       </c>
       <c r="R30" t="n">
-        <v>6968056.745323926</v>
+        <v>6968052.537048084</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98151269</v>
+        <v>98151283</v>
       </c>
       <c r="B31" t="n">
-        <v>73631</v>
+        <v>89410</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4047,25 +4047,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6426</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4075,10 +4075,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664416.9957306259</v>
+        <v>664467.6032586561</v>
       </c>
       <c r="R31" t="n">
-        <v>6967989.630702551</v>
+        <v>6968078.295775652</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>98151342</v>
+        <v>98151358</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>93148</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4159,38 +4159,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Stormyran, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664414.5233459049</v>
+        <v>663923.3061348161</v>
       </c>
       <c r="R32" t="n">
-        <v>6968011.497083161</v>
+        <v>6968220.089407885</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>98151305</v>
+        <v>98151130</v>
       </c>
       <c r="B33" t="n">
-        <v>81236</v>
+        <v>78503</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4271,38 +4271,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1312</v>
+        <v>6456</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664420.7254760786</v>
+        <v>663974.0132528287</v>
       </c>
       <c r="R33" t="n">
-        <v>6967988.443260053</v>
+        <v>6968297.750628498</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>98151275</v>
+        <v>98151356</v>
       </c>
       <c r="B34" t="n">
-        <v>89406</v>
+        <v>78479</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4383,38 +4383,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1204</v>
+        <v>392</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664428.9819053004</v>
+        <v>663975.9349722316</v>
       </c>
       <c r="R34" t="n">
-        <v>6968052.537048084</v>
+        <v>6968296.014373922</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98151283</v>
+        <v>98151144</v>
       </c>
       <c r="B35" t="n">
-        <v>89410</v>
+        <v>89403</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4495,38 +4495,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>1205</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664467.6032586561</v>
+        <v>663973.143774787</v>
       </c>
       <c r="R35" t="n">
-        <v>6968078.295775652</v>
+        <v>6968296.79099117</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>

--- a/artfynd/A 16158-2021.xlsx
+++ b/artfynd/A 16158-2021.xlsx
@@ -2243,10 +2243,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98151268</v>
+        <v>98151358</v>
       </c>
       <c r="B15" t="n">
-        <v>73631</v>
+        <v>93148</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2255,38 +2255,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6426</v>
+        <v>1079</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Stormyran, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664289.4311076899</v>
+        <v>663923.3061348161</v>
       </c>
       <c r="R15" t="n">
-        <v>6968026.761211542</v>
+        <v>6968220.089407885</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98150989</v>
+        <v>98151268</v>
       </c>
       <c r="B16" t="n">
-        <v>77541</v>
+        <v>73631</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,25 +2367,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6426</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664384.6636208369</v>
+        <v>664289.4311076899</v>
       </c>
       <c r="R16" t="n">
-        <v>6968003.128549194</v>
+        <v>6968026.761211542</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98151014</v>
+        <v>98151130</v>
       </c>
       <c r="B17" t="n">
-        <v>89732</v>
+        <v>78503</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2479,25 +2479,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2062</v>
+        <v>6456</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664290.9406681373</v>
+        <v>663974.0132528287</v>
       </c>
       <c r="R17" t="n">
-        <v>6968060.737959783</v>
+        <v>6968297.750628498</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98151080</v>
+        <v>98150989</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>77541</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2595,21 +2595,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664386.6082164289</v>
+        <v>664384.6636208369</v>
       </c>
       <c r="R18" t="n">
-        <v>6968010.097956684</v>
+        <v>6968003.128549194</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>98151357</v>
+        <v>98151356</v>
       </c>
       <c r="B19" t="n">
         <v>78479</v>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664139.5142268437</v>
+        <v>663975.9349722316</v>
       </c>
       <c r="R19" t="n">
-        <v>6968033.915686903</v>
+        <v>6968296.014373922</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>98151084</v>
+        <v>98151144</v>
       </c>
       <c r="B20" t="n">
-        <v>89392</v>
+        <v>89403</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2815,25 +2815,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664311.4867898196</v>
+        <v>663973.143774787</v>
       </c>
       <c r="R20" t="n">
-        <v>6968099.332879714</v>
+        <v>6968296.79099117</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>98151131</v>
+        <v>98151014</v>
       </c>
       <c r="B21" t="n">
-        <v>78503</v>
+        <v>89732</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2927,25 +2927,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6456</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664135.3270324104</v>
+        <v>664290.9406681373</v>
       </c>
       <c r="R21" t="n">
-        <v>6968035.080522615</v>
+        <v>6968060.737959783</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>98151083</v>
+        <v>98151080</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664289.8194318935</v>
+        <v>664386.6082164289</v>
       </c>
       <c r="R22" t="n">
-        <v>6968064.804886819</v>
+        <v>6968010.097956684</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>98151081</v>
+        <v>98151357</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>78479</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,25 +3151,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>392</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3179,10 +3179,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664390.9109275232</v>
+        <v>664139.5142268437</v>
       </c>
       <c r="R23" t="n">
-        <v>6967988.323297421</v>
+        <v>6968033.915686903</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>98151176</v>
+        <v>98151084</v>
       </c>
       <c r="B24" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664312.310446391</v>
+        <v>664311.4867898196</v>
       </c>
       <c r="R24" t="n">
-        <v>6968101.206605153</v>
+        <v>6968099.332879714</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>98151145</v>
+        <v>98151131</v>
       </c>
       <c r="B25" t="n">
-        <v>89403</v>
+        <v>78503</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664122.421552405</v>
+        <v>664135.3270324104</v>
       </c>
       <c r="R25" t="n">
-        <v>6968017.942315456</v>
+        <v>6968035.080522615</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>98151307</v>
+        <v>98151083</v>
       </c>
       <c r="B26" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3491,34 +3491,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664448.9567745975</v>
+        <v>664289.8194318935</v>
       </c>
       <c r="R26" t="n">
-        <v>6968056.745323926</v>
+        <v>6968064.804886819</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>98151269</v>
+        <v>98151081</v>
       </c>
       <c r="B27" t="n">
-        <v>73631</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3599,38 +3599,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664416.9957306259</v>
+        <v>664390.9109275232</v>
       </c>
       <c r="R27" t="n">
-        <v>6967989.630702551</v>
+        <v>6967988.323297421</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>98151342</v>
+        <v>98151176</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,34 +3715,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664414.5233459049</v>
+        <v>664312.310446391</v>
       </c>
       <c r="R28" t="n">
-        <v>6968011.497083161</v>
+        <v>6968101.206605153</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>98151305</v>
+        <v>98151145</v>
       </c>
       <c r="B29" t="n">
-        <v>81236</v>
+        <v>89403</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3823,38 +3823,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>1205</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kråkan, Ång</t>
+          <t>Bråtan, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664420.7254760786</v>
+        <v>664122.421552405</v>
       </c>
       <c r="R29" t="n">
-        <v>6967988.443260053</v>
+        <v>6968017.942315456</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>98151275</v>
+        <v>98151307</v>
       </c>
       <c r="B30" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3939,21 +3939,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664428.9819053004</v>
+        <v>664448.9567745975</v>
       </c>
       <c r="R30" t="n">
-        <v>6968052.537048084</v>
+        <v>6968056.745323926</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98151283</v>
+        <v>98151269</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>73631</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4047,25 +4047,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6426</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4075,10 +4075,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664467.6032586561</v>
+        <v>664416.9957306259</v>
       </c>
       <c r="R31" t="n">
-        <v>6968078.295775652</v>
+        <v>6967989.630702551</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>98151358</v>
+        <v>98151342</v>
       </c>
       <c r="B32" t="n">
-        <v>93148</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4159,38 +4159,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1079</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Stormyran, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>663923.3061348161</v>
+        <v>664414.5233459049</v>
       </c>
       <c r="R32" t="n">
-        <v>6968220.089407885</v>
+        <v>6968011.497083161</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>98151130</v>
+        <v>98151305</v>
       </c>
       <c r="B33" t="n">
-        <v>78503</v>
+        <v>81236</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4271,38 +4271,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6456</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>663974.0132528287</v>
+        <v>664420.7254760786</v>
       </c>
       <c r="R33" t="n">
-        <v>6968297.750628498</v>
+        <v>6967988.443260053</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>98151356</v>
+        <v>98151275</v>
       </c>
       <c r="B34" t="n">
-        <v>78479</v>
+        <v>89406</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4383,38 +4383,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>392</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>663975.9349722316</v>
+        <v>664428.9819053004</v>
       </c>
       <c r="R34" t="n">
-        <v>6968296.014373922</v>
+        <v>6968052.537048084</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98151144</v>
+        <v>98151283</v>
       </c>
       <c r="B35" t="n">
-        <v>89403</v>
+        <v>89410</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4495,38 +4495,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1205</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bråtan, Ång</t>
+          <t>Kråkan, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>663973.143774787</v>
+        <v>664467.6032586561</v>
       </c>
       <c r="R35" t="n">
-        <v>6968296.79099117</v>
+        <v>6968078.295775652</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
